--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\RPP-Phase-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\RPP-Phase-2-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D1A09-FFAD-4FCD-9DC9-7D4EBA9C2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="975" windowWidth="13755" windowHeight="11385" activeTab="2" xr2:uid="{0902BD99-A762-4835-AF4C-E6BB712629A5}"/>
+    <workbookView xWindow="4170" yWindow="980" windowWidth="13760" windowHeight="11390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserID" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Entry Point" sheetId="4" r:id="rId3"/>
     <sheet name="Dropdown" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>Main Module</t>
   </si>
@@ -383,12 +382,48 @@
     <t>You can always add a favourite account at
  the end of a transaction and select them 
 from here in future.</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>AFGHANISTAN</t>
+  </si>
+  <si>
+    <t>ALBANIA</t>
+  </si>
+  <si>
+    <t>ALGERIA</t>
+  </si>
+  <si>
+    <t>AMERICAN SAMOA</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Choosen</t>
+  </si>
+  <si>
+    <t>0142255681</t>
+  </si>
+  <si>
+    <t>960603135173</t>
+  </si>
+  <si>
+    <t>1238192310293</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0##########"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,12 +468,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -753,20 +792,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477F6997-D9D2-4F28-B4CD-882FC1BB76CA}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -782,8 +821,11 @@
       <c r="E1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -799,8 +841,11 @@
       <c r="E2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -817,7 +862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>20</v>
@@ -826,69 +871,69 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -896,28 +941,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CE3434AC-353D-4200-80A2-16F5422FD64C}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17045EAC-A337-406C-8D0C-51747F649085}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +985,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -953,39 +1005,56 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="str">
+        <f>LEFT(G3,3)&amp;" "&amp;MID(G3,4,4)&amp;" "&amp;MID(G3,8,4)&amp;" "&amp;MID(G3,12,4)</f>
+        <v xml:space="preserve">014 2255 681 </v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f>LEFT(G4,6)&amp;" "&amp;MID(G4,7,2)&amp;" "&amp;MID(G4,9,4)</f>
+        <v>960603 13 5173</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -993,7 +1062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1004,7 +1073,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
@@ -1015,9 +1087,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -1025,10 +1097,17 @@
       <c r="E11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>LEFT(F11,3)&amp;" "&amp;MID(F11,4,4)&amp;" "&amp;MID(F11,8,4)&amp;" "&amp;MID(F11,12,4)</f>
+        <v xml:space="preserve">014 2255 681 </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -1036,10 +1115,17 @@
       <c r="E12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="str">
+        <f>LEFT(F12,6)&amp;" "&amp;MID(F12,7,2)&amp;" "&amp;MID(F12,9,4)</f>
+        <v>960603 13 5173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -1047,11 +1133,15 @@
       <c r="E13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
+      <c r="F13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="str">
+        <f>F13</f>
+        <v>1238192310293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>94</v>
       </c>
@@ -1059,7 +1149,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -1070,7 +1160,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1082,26 +1172,32 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$C$10:$C$16</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAA1D2E-F5A3-46BB-A28C-AD463671923A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -1115,7 +1211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1129,7 +1225,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -1140,7 +1236,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -1151,7 +1247,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
@@ -1162,56 +1258,71 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0821817-7AFC-491A-8114-3AE83C2C85A6}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1219,7 +1330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1227,142 +1338,142 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>90</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\RPP-Phase-2-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\RPP-Phase-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FBAC96-BE91-4475-AA3E-E5DCDBB1DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="980" windowWidth="13760" windowHeight="11390" activeTab="1"/>
+    <workbookView xWindow="885" yWindow="675" windowWidth="9750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserID" sheetId="2" r:id="rId1"/>
     <sheet name="Main" sheetId="1" r:id="rId2"/>
-    <sheet name="Entry Point" sheetId="4" r:id="rId3"/>
-    <sheet name="Dropdown" sheetId="3" r:id="rId4"/>
+    <sheet name="Confirmation" sheetId="5" r:id="rId3"/>
+    <sheet name="Entry Point" sheetId="4" r:id="rId4"/>
+    <sheet name="Dropdown" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
   <si>
     <t>Main Module</t>
   </si>
@@ -415,14 +417,86 @@
   </si>
   <si>
     <t>1238192310293</t>
+  </si>
+  <si>
+    <t>The DuitNow ID entered is no longer valid. Please initiate a new transfer.</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t>FAV expired</t>
+  </si>
+  <si>
+    <t>0132512314</t>
+  </si>
+  <si>
+    <t>Enter amount</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Enter recipient reference</t>
+  </si>
+  <si>
+    <t>Masked</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Request expiry date</t>
+  </si>
+  <si>
+    <t>Recipient reference</t>
+  </si>
+  <si>
+    <t>Amount editable</t>
+  </si>
+  <si>
+    <t>Payment details</t>
+  </si>
+  <si>
+    <t>Notify via email</t>
+  </si>
+  <si>
+    <t>Enable DuitNow AutoDebit</t>
+  </si>
+  <si>
+    <t>Pay to</t>
+  </si>
+  <si>
+    <t>Accepted payment methods</t>
+  </si>
+  <si>
+    <t>Savings &amp; current account</t>
+  </si>
+  <si>
+    <t>E-Wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hereby declare that I have read and understand the terms and conditions set forth below and agree to comply with and be bound by the provision of the said terms and conditions and any amendment to the same which the bank may subsequently introduce. </t>
+  </si>
+  <si>
+    <t>Declaration:</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>soleuat02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0##########"/>
+    <numFmt numFmtId="164" formatCode="0##########"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -468,16 +542,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,20 +864,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -825,7 +897,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -845,7 +917,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -855,85 +927,93 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
+      <c r="D3">
+        <v>111111</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4">
+        <v>111111</v>
+      </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -941,32 +1021,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{64DE1467-C254-4FA5-A102-4716418C250D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,8 +1069,11 @@
       <c r="G1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1009,22 +1093,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" t="str">
         <f>LEFT(G3,3)&amp;" "&amp;MID(G3,4,4)&amp;" "&amp;MID(G3,8,4)&amp;" "&amp;MID(G3,12,4)</f>
-        <v xml:space="preserve">014 2255 681 </v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">013 2512 314 </v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -1035,26 +1119,32 @@
         <f>LEFT(G4,6)&amp;" "&amp;MID(G4,7,2)&amp;" "&amp;MID(G4,9,4)</f>
         <v>960603 13 5173</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1062,7 +1152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1072,8 +1162,15 @@
       <c r="D9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" t="str">
+        <f>LEFT(F9,4)&amp;" "&amp;MID(F9,5,4)&amp;" "&amp;MID(F9,9,4)&amp;" "&amp;MID(F9,13,4)</f>
+        <v xml:space="preserve">1111 1111 1111 </v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>49</v>
       </c>
@@ -1087,7 +1184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>50</v>
       </c>
@@ -1100,12 +1197,12 @@
       <c r="F11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="G11" t="str">
         <f>LEFT(F11,3)&amp;" "&amp;MID(F11,4,4)&amp;" "&amp;MID(F11,8,4)&amp;" "&amp;MID(F11,12,4)</f>
         <v xml:space="preserve">014 2255 681 </v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -1123,7 +1220,7 @@
         <v>960603 13 5173</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -1141,15 +1238,22 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="str">
+        <f>F14</f>
+        <v>1238192310293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -1159,8 +1263,15 @@
       <c r="E15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="str">
+        <f>F15</f>
+        <v>1238192310293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1171,9 +1282,30 @@
         <v>98</v>
       </c>
     </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$C$10:$C$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -1183,73 +1315,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420CC7F-0DF0-4158-8DFF-B51AAA9FD892}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1258,16 +1412,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1278,7 +1507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1289,7 +1518,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1300,7 +1529,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1311,7 +1540,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1322,7 +1551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1330,7 +1559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1338,142 +1567,142 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\RPP-Phase-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\RPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FBAC96-BE91-4475-AA3E-E5DCDBB1DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="675" windowWidth="9750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="890" yWindow="680" windowWidth="9750" windowHeight="11390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserID" sheetId="2" r:id="rId1"/>
-    <sheet name="Main" sheetId="1" r:id="rId2"/>
-    <sheet name="Confirmation" sheetId="5" r:id="rId3"/>
-    <sheet name="Entry Point" sheetId="4" r:id="rId4"/>
-    <sheet name="Dropdown" sheetId="3" r:id="rId5"/>
+    <sheet name="AutoBilling" sheetId="6" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId3"/>
+    <sheet name="Confirmation" sheetId="5" r:id="rId4"/>
+    <sheet name="Entry Point" sheetId="4" r:id="rId5"/>
+    <sheet name="Dropdown" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="205">
   <si>
     <t>Main Module</t>
   </si>
@@ -489,12 +489,191 @@
   </si>
   <si>
     <t>soleuat02</t>
+  </si>
+  <si>
+    <t>Auto
+Billing</t>
+  </si>
+  <si>
+    <t>Auto Billing</t>
+  </si>
+  <si>
+    <t>BILL STATUS</t>
+  </si>
+  <si>
+    <t>I'd like to</t>
+  </si>
+  <si>
+    <t>Manage Your Bills</t>
+  </si>
+  <si>
+    <t>Pay your bills, but without the hassle!
+Set up auto billing here now.</t>
+  </si>
+  <si>
+    <t>Set Up
+Auto Billing</t>
+  </si>
+  <si>
+    <t>Charge
+Customer</t>
+  </si>
+  <si>
+    <t>Step 1 of 2</t>
+  </si>
+  <si>
+    <t>AutoBill Trxn</t>
+  </si>
+  <si>
+    <t>Set Up Auto Billing via DuitNow AutoDebit</t>
+  </si>
+  <si>
+    <t>Please fill in merchant's details</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>e.g. INV23232323</t>
+  </si>
+  <si>
+    <t>Pay from</t>
+  </si>
+  <si>
+    <t>Select Merchant</t>
+  </si>
+  <si>
+    <t>Type to search</t>
+  </si>
+  <si>
+    <t>We couldn't find any items matching your search.</t>
+  </si>
+  <si>
+    <t>One product</t>
+  </si>
+  <si>
+    <t>Many product</t>
+  </si>
+  <si>
+    <t>Abc Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Axiata Digital Ecode Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Bill/Invoice/Ref. No. or references allowing recipients
+to identify you.</t>
+  </si>
+  <si>
+    <t>Test445013</t>
+  </si>
+  <si>
+    <t>Step 2 of 2</t>
+  </si>
+  <si>
+    <t>Please fill in auto debit details</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Tap to select start date</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Tap to select end date</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Anytime</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Quaterly</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>The number of times you will be charged by the merchant for each billing.
+For example, if weekly, you will be charged once a week between the start and end date.
+Or if anytime, you will be charged anytime between the start date and end date.</t>
+  </si>
+  <si>
+    <t>The maximum amount that will be deducted from you for every billing.
+Do set an amount that’s reasonable.</t>
+  </si>
+  <si>
+    <t>No Results Found</t>
+  </si>
+  <si>
+    <t>My Bills</t>
+  </si>
+  <si>
+    <t>View All</t>
+  </si>
+  <si>
+    <t>Outgoing</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Paused</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Ended</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Bill Status</t>
+  </si>
+  <si>
+    <t>You’ve received a request from</t>
+  </si>
+  <si>
+    <t>Details card</t>
+  </si>
+  <si>
+    <t>Requested on</t>
+  </si>
+  <si>
+    <t>DuitNow AutoDebit Details</t>
+  </si>
+  <si>
+    <t>23 Dec 2022 to 31 Dec 2022</t>
+  </si>
+  <si>
+    <t>Limit per transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuitNow AutoDebit ID </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0##########"/>
   </numFmts>
@@ -542,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -550,6 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,20 +1044,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -897,7 +1077,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -917,7 +1097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -934,7 +1114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -951,69 +1131,69 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1021,33 +1201,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{64DE1467-C254-4FA5-A102-4716418C250D}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1249,269 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E30" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1546,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1561,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>36</v>
       </c>
@@ -1134,17 +1572,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1152,7 +1590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1170,7 +1608,7 @@
         <v xml:space="preserve">1111 1111 1111 </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>50</v>
       </c>
@@ -1202,7 +1640,7 @@
         <v xml:space="preserve">014 2255 681 </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -1220,7 +1658,7 @@
         <v>960603 13 5173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -1238,7 +1676,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>94</v>
       </c>
@@ -1253,7 +1691,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -1271,7 +1709,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1282,7 +1720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>126</v>
       </c>
@@ -1290,12 +1728,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>131</v>
       </c>
@@ -1303,9 +1741,62 @@
         <v>32</v>
       </c>
     </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$C$10:$C$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -1314,20 +1805,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420CC7F-0DF0-4158-8DFF-B51AAA9FD892}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1338,47 +1829,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -1386,99 +1877,24 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1487,16 +1903,166 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="61.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1506,8 +2072,11 @@
       <c r="C1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1517,8 +2086,11 @@
       <c r="C2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1528,8 +2100,11 @@
       <c r="C3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1539,8 +2114,11 @@
       <c r="C4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1550,159 +2128,168 @@
       <c r="C5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>90</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\RPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\RPP-Phase-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD70332-6A7A-44EE-B6B6-50144985875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="680" windowWidth="9750" windowHeight="11390" activeTab="2"/>
+    <workbookView xWindow="9015" yWindow="435" windowWidth="9750" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserID" sheetId="2" r:id="rId1"/>
@@ -17,9 +18,10 @@
     <sheet name="Main" sheetId="1" r:id="rId3"/>
     <sheet name="Confirmation" sheetId="5" r:id="rId4"/>
     <sheet name="Entry Point" sheetId="4" r:id="rId5"/>
-    <sheet name="Dropdown" sheetId="3" r:id="rId6"/>
+    <sheet name="Approval" sheetId="7" r:id="rId6"/>
+    <sheet name="Dropdown" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="234">
   <si>
     <t>Main Module</t>
   </si>
@@ -668,16 +670,103 @@
   </si>
   <si>
     <t xml:space="preserve">DuitNow AutoDebit ID </t>
+  </si>
+  <si>
+    <t>You've received an auto billing request from</t>
+  </si>
+  <si>
+    <t>Reject (creditor)</t>
+  </si>
+  <si>
+    <t>Reject Request</t>
+  </si>
+  <si>
+    <t>Are you sure you'd like to reject this incoming request?</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>DuitNow AutoDebit has been rejected. Rejected requests can be viewed under 'Past'.</t>
+  </si>
+  <si>
+    <t>You've rejected the request from</t>
+  </si>
+  <si>
+    <t>Reject (debtor)</t>
+  </si>
+  <si>
+    <t>You've received a request from</t>
+  </si>
+  <si>
+    <t>Block Request</t>
+  </si>
+  <si>
+    <t>Approve Now</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Authorisation</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Secure2u Authorisation</t>
+  </si>
+  <si>
+    <t>Approve DuitNow AutoDebit Request</t>
+  </si>
+  <si>
+    <t>Account to receive payment</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Date &amp; time</t>
+  </si>
+  <si>
+    <t>One Time Password</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Fail Approval</t>
+  </si>
+  <si>
+    <t>DuitNow AutoDebit approval unsuccesful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong OTP </t>
+  </si>
+  <si>
+    <t>Reference ID</t>
+  </si>
+  <si>
+    <t>Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Successful Approval</t>
+  </si>
+  <si>
+    <t>Transaction type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0##########"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +784,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -729,7 +826,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1044,20 +1141,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1174,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1131,69 +1228,69 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1201,29 +1298,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -1263,7 +1360,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1271,7 +1368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1376,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1384,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1400,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1408,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1416,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1341,17 +1438,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>160</v>
       </c>
@@ -1359,10 +1456,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>135</v>
       </c>
@@ -1373,17 +1470,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>163</v>
       </c>
@@ -1397,7 +1494,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>169</v>
       </c>
@@ -1405,17 +1502,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>172</v>
       </c>
@@ -1423,69 +1520,168 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E30" s="5" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>186</v>
       </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1742,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>36</v>
       </c>
@@ -1572,17 +1768,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1608,7 +1804,7 @@
         <v xml:space="preserve">1111 1111 1111 </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>49</v>
       </c>
@@ -1622,7 +1818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>50</v>
       </c>
@@ -1640,7 +1836,7 @@
         <v xml:space="preserve">014 2255 681 </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -1658,7 +1854,7 @@
         <v>960603 13 5173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1872,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>94</v>
       </c>
@@ -1691,7 +1887,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -1709,7 +1905,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1720,7 +1916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>126</v>
       </c>
@@ -1728,12 +1924,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>131</v>
       </c>
@@ -1741,62 +1937,80 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>199</v>
       </c>
       <c r="D20" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D27" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D28" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D29" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$C$10:$C$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -1806,19 +2020,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1829,47 +2043,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -1877,22 +2091,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -1903,21 +2117,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -1931,7 +2145,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1945,7 +2159,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -1956,7 +2170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -1967,12 +2181,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -1983,22 +2197,22 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>193</v>
       </c>
@@ -2006,22 +2220,22 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>197</v>
       </c>
@@ -2029,12 +2243,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>193</v>
       </c>
@@ -2042,7 +2256,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>196</v>
       </c>
@@ -2053,16 +2267,153 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AD417C-3AF0-44B7-BA46-23118926A6AB}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2">
+        <v>7173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{82DB9C9D-624B-4AF2-9969-D4C8531574E3}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -2076,7 +2427,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2090,7 +2441,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2104,7 +2455,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2118,7 +2469,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2132,7 +2483,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2143,7 +2494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2154,142 +2505,142 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\RPP-Phase-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\RPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD70332-6A7A-44EE-B6B6-50144985875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="435" windowWidth="9750" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9020" yWindow="440" windowWidth="9750" windowHeight="11390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UserID" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Approval" sheetId="7" r:id="rId6"/>
     <sheet name="Dropdown" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="233">
   <si>
     <t>Main Module</t>
   </si>
@@ -661,9 +660,6 @@
   </si>
   <si>
     <t>DuitNow AutoDebit Details</t>
-  </si>
-  <si>
-    <t>23 Dec 2022 to 31 Dec 2022</t>
   </si>
   <si>
     <t>Limit per transaction</t>
@@ -762,7 +758,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0##########"/>
   </numFmts>
@@ -1141,20 +1137,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1170,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1228,69 +1224,69 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1298,29 +1294,29 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1342,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -1360,7 +1356,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1372,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1388,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -1400,7 +1396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1412,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -1424,7 +1420,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -1438,17 +1434,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>160</v>
       </c>
@@ -1456,10 +1452,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>135</v>
       </c>
@@ -1470,17 +1466,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>163</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>169</v>
       </c>
@@ -1502,17 +1498,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D21" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>172</v>
       </c>
@@ -1520,32 +1516,32 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D24" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D25" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D26" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D27" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D28" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D29" s="1" t="s">
         <v>178</v>
       </c>
@@ -1553,107 +1549,107 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+      <c r="E33" t="s">
         <v>208</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D40" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
     </row>
   </sheetData>
@@ -1663,25 +1659,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1753,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>36</v>
       </c>
@@ -1768,17 +1764,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1786,7 +1782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1804,7 +1800,7 @@
         <v xml:space="preserve">1111 1111 1111 </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>49</v>
       </c>
@@ -1818,7 +1814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>50</v>
       </c>
@@ -1836,7 +1832,7 @@
         <v xml:space="preserve">014 2255 681 </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -1854,7 +1850,7 @@
         <v>960603 13 5173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>94</v>
       </c>
@@ -1887,7 +1883,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -1905,7 +1901,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1916,7 +1912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>126</v>
       </c>
@@ -1924,12 +1920,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>131</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>199</v>
       </c>
@@ -1945,72 +1941,72 @@
         <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D25" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>$C$10:$C$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -2020,19 +2016,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2043,47 +2039,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -2091,22 +2087,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -2117,21 +2113,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -2170,7 +2166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -2181,12 +2177,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -2197,22 +2193,22 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>193</v>
       </c>
@@ -2220,22 +2216,22 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>197</v>
       </c>
@@ -2243,12 +2239,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>193</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
         <v>196</v>
       </c>
@@ -2267,26 +2263,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AD417C-3AF0-44B7-BA46-23118926A6AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" t="s">
-        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -2295,107 +2291,107 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2">
         <v>7173</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>119</v>
       </c>
       <c r="C3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
         <v>227</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
       <c r="C12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{82DB9C9D-624B-4AF2-9969-D4C8531574E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2404,16 +2400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -2427,7 +2423,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2441,7 +2437,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2455,7 +2451,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2469,7 +2465,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2483,7 +2479,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2494,7 +2490,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2505,142 +2501,142 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>90</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\RPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\RPP-Phase-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27670AC-8406-4E43-9ACB-F0661E66F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9020" yWindow="440" windowWidth="9750" windowHeight="11390" activeTab="2"/>
+    <workbookView xWindow="1410" yWindow="945" windowWidth="13575" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserID" sheetId="2" r:id="rId1"/>
-    <sheet name="AutoBilling" sheetId="6" r:id="rId2"/>
+    <sheet name="AutoDebit" sheetId="8" r:id="rId2"/>
     <sheet name="Main" sheetId="1" r:id="rId3"/>
-    <sheet name="Confirmation" sheetId="5" r:id="rId4"/>
-    <sheet name="Entry Point" sheetId="4" r:id="rId5"/>
-    <sheet name="Approval" sheetId="7" r:id="rId6"/>
-    <sheet name="Dropdown" sheetId="3" r:id="rId7"/>
+    <sheet name="AutoBilling" sheetId="6" r:id="rId4"/>
+    <sheet name="Confirmation" sheetId="5" r:id="rId5"/>
+    <sheet name="Entry Point" sheetId="4" r:id="rId6"/>
+    <sheet name="Approval" sheetId="7" r:id="rId7"/>
+    <sheet name="Dropdown" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="258">
   <si>
     <t>Main Module</t>
   </si>
@@ -753,12 +756,87 @@
   </si>
   <si>
     <t>Transaction type</t>
+  </si>
+  <si>
+    <t>You've sent a request to</t>
+  </si>
+  <si>
+    <t>Past Details Card</t>
+  </si>
+  <si>
+    <t>You've approved the request from</t>
+  </si>
+  <si>
+    <t>You've blocked the request from</t>
+  </si>
+  <si>
+    <t>This request has expired</t>
+  </si>
+  <si>
+    <t>!Registered</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>You've received approval from</t>
+  </si>
+  <si>
+    <t>Your request has expired</t>
+  </si>
+  <si>
+    <t>Your request has been rejected by</t>
+  </si>
+  <si>
+    <t>Your request has been blocked by</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Sub-Module</t>
+  </si>
+  <si>
+    <t>DuitNowAutoDebit</t>
+  </si>
+  <si>
+    <t>Registered Merchant</t>
+  </si>
+  <si>
+    <t>Please fill in request details</t>
+  </si>
+  <si>
+    <t>Bank/e-Wallet Account Number</t>
+  </si>
+  <si>
+    <t>Recipient Bank/e-Wallet</t>
+  </si>
+  <si>
+    <t>Passport number</t>
+  </si>
+  <si>
+    <t>Enter Army/Police ID</t>
+  </si>
+  <si>
+    <t>e.g. 8888 1212 8888</t>
+  </si>
+  <si>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>Bank Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0##########"/>
   </numFmts>
@@ -801,7 +879,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -809,12 +887,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -823,6 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1137,20 +1231,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="55.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1264,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1224,69 +1318,69 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1294,34 +1388,35 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8771B63-3B90-490E-8CA1-68B5D2EF81DE}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1332,352 +1427,160 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D12" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D13" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="D17" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D21" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D22" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D24" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D25" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D26" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D27" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D28" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D32" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D33" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D35" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D37" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D38" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="D40" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{42E4A9FB-0C82-4B62-B83A-7616729FAC76}">
+      <formula1>$D$8:$D$13</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1606,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1723,7 +1626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1641,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1656,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>36</v>
       </c>
@@ -1764,17 +1667,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1782,7 +1685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1703,7 @@
         <v xml:space="preserve">1111 1111 1111 </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>49</v>
       </c>
@@ -1814,7 +1717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>50</v>
       </c>
@@ -1832,7 +1735,7 @@
         <v xml:space="preserve">014 2255 681 </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>51</v>
       </c>
@@ -1850,7 +1753,7 @@
         <v>960603 13 5173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -1868,7 +1771,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>94</v>
       </c>
@@ -1883,7 +1786,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -1901,7 +1804,7 @@
         <v>1238192310293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -1912,7 +1815,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>126</v>
       </c>
@@ -1920,12 +1823,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>131</v>
       </c>
@@ -1933,7 +1836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>199</v>
       </c>
@@ -1943,70 +1846,127 @@
       <c r="E20" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>216</v>
       </c>
     </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$C$10:$C$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -2016,19 +1976,376 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2039,47 +2356,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -2087,22 +2404,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -2112,22 +2429,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="61.453125" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2141,7 +2458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -2155,7 +2472,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>108</v>
       </c>
@@ -2166,7 +2483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -2177,12 +2494,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>150</v>
       </c>
@@ -2193,22 +2510,22 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>193</v>
       </c>
@@ -2216,22 +2533,22 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>197</v>
       </c>
@@ -2239,12 +2556,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>193</v>
       </c>
@@ -2252,7 +2569,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>196</v>
       </c>
@@ -2262,22 +2579,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -2291,7 +2608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -2302,7 +2619,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -2313,27 +2630,27 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -2341,22 +2658,22 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -2364,34 +2681,34 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2399,17 +2716,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2740,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2437,7 +2754,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2451,7 +2768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2465,7 +2782,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2479,7 +2796,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2490,7 +2807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2501,142 +2818,142 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
